--- a/automation/auto-vpo/output/GTS_Submit_filled_20251216_012255.xlsx
+++ b/automation/auto-vpo/output/GTS_Submit_filled_20251216_012255.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/qibai_chen_intel_com/Documents/Documents/AI_Code/automation/auto-vpo/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_67A5F08F902ED9740915CBF394F5C3215659EE6F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4954C55-E101-4BE4-AEB7-80BE7C2C4BDD}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_67A5F08F902ED9740915CBF394F5C3215659EE6F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AA8EBB0-61F5-4416-BD99-06A2E73C999F}"/>
   <bookViews>
-    <workbookView xWindow="5895" yWindow="2745" windowWidth="22905" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3744" yWindow="4392" windowWidth="23040" windowHeight="12168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>VPO number</t>
   </si>
@@ -55,44 +55,52 @@
     <t>needed?</t>
   </si>
   <si>
-    <t>P551195CR</t>
-  </si>
-  <si>
-    <t>6248</t>
-  </si>
-  <si>
-    <t>PTPB5TPI501</t>
-  </si>
-  <si>
-    <t>2566692</t>
-  </si>
-  <si>
-    <t>HDMX2524_LEVEL4/5</t>
-  </si>
-  <si>
-    <t>2PM-2AM</t>
-  </si>
-  <si>
-    <t>12Hr</t>
-  </si>
-  <si>
-    <t>WW51.3</t>
-  </si>
-  <si>
-    <t>P551196CR</t>
-  </si>
-  <si>
-    <t>PTPB5TPI206</t>
-  </si>
-  <si>
-    <t>2558258</t>
+    <t>P551181EN</t>
+  </si>
+  <si>
+    <t>M5361NQ700226</t>
+  </si>
+  <si>
+    <t>M5361NQ700227</t>
+  </si>
+  <si>
+    <t>M5361NQ700229</t>
+  </si>
+  <si>
+    <t>M5361NQ700230</t>
+  </si>
+  <si>
+    <t>M5361NQ700232</t>
+  </si>
+  <si>
+    <t>M5361NQ700234</t>
+  </si>
+  <si>
+    <t>HDMX2524_LEVEL4</t>
+  </si>
+  <si>
+    <t>4Hr</t>
+  </si>
+  <si>
+    <t>2PM-6PM</t>
+  </si>
+  <si>
+    <t>WW51.5</t>
+  </si>
+  <si>
+    <t>5248
+6274
+6275
+6233
+7821
+7823</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,14 +109,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -470,7 +470,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -600,419 +600,409 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1157,6 +1147,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1422,44 +1416,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="31.33203125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" ht="28.8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1467,76 +1461,123 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="D3" s="5">
+        <v>2569943</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A4" s="7"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="7"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="7"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="7"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="7"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="H3:H8"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>